--- a/published-data/fonds-solidarite/fds-2021-11-12/pge-regional-naf-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-11-12/pge-regional-naf-latest.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2345.00</t>
+          <t>2361.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>122049301.00</t>
+          <t>124009001.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -525,12 +525,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6402000.00</t>
+          <t>7207000.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8081.00</t>
+          <t>8107.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2878246542.00</t>
+          <t>2891779642.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1536289.00</t>
+          <t>1195430.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>197.00</t>
+          <t>198.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>71938987.00</t>
+          <t>72008987.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13012.00</t>
+          <t>13056.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1580251217.00</t>
+          <t>1583763025.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -735,12 +735,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20492.00</t>
+          <t>20542.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3951744318.00</t>
+          <t>3967538220.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -777,12 +777,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2543.00</t>
+          <t>2552.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>503369557.00</t>
+          <t>506637536.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13488.00</t>
+          <t>13507.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1277121890.00</t>
+          <t>1281735021.00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1756.00</t>
+          <t>1763.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>431336628.00</t>
+          <t>432432128.00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -903,12 +903,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1473.00</t>
+          <t>1481.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1328967719.00</t>
+          <t>1329691419.00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -945,12 +945,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2073.00</t>
+          <t>2076.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>214106067.00</t>
+          <t>213904897.00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -987,12 +987,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8048.00</t>
+          <t>8072.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1869668440.00</t>
+          <t>1874311500.00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1029,12 +1029,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3442.00</t>
+          <t>3450.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>562089442.00</t>
+          <t>563576208.00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1071,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1848.00</t>
+          <t>1850.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>125635237.00</t>
+          <t>125997774.00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5542.00</t>
+          <t>5568.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>343721569.00</t>
+          <t>344803469.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1837.00</t>
+          <t>1840.00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>357867656.00</t>
+          <t>358301956.00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5080.00</t>
+          <t>5090.00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>166526487.00</t>
+          <t>166882937.00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>68.00</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7802231.00</t>
+          <t>7598090.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1391.00</t>
+          <t>1398.00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>116657886.00</t>
+          <t>117025886.00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2417.00</t>
+          <t>2424.00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>933909926.00</t>
+          <t>936337397.00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1449,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>64.00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13812754.00</t>
+          <t>13562754.00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1491,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3586.00</t>
+          <t>3598.00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>371657953.00</t>
+          <t>372808978.00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6219.00</t>
+          <t>6233.00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>956804163.00</t>
+          <t>959423559.00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1575,12 +1575,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>617.00</t>
+          <t>619.00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>92145437.00</t>
+          <t>92310787.00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1617,12 +1617,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3626.00</t>
+          <t>3632.00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>244349488.00</t>
+          <t>244446637.00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1659,12 +1659,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>301.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>44846633.00</t>
+          <t>44970633.00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>387.00</t>
+          <t>389.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>320737939.00</t>
+          <t>321570939.00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1743,12 +1743,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>469.00</t>
+          <t>472.00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>36685856.00</t>
+          <t>36876356.00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1785,12 +1785,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1596.00</t>
+          <t>1600.00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>247840627.00</t>
+          <t>248012587.00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>740.00</t>
+          <t>741.00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>121700080.00</t>
+          <t>121987675.00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>434.00</t>
+          <t>437.00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>26346824.00</t>
+          <t>26349824.00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1583.00</t>
+          <t>1587.00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>85250680.00</t>
+          <t>85324080.00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1953,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>522.00</t>
+          <t>525.00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>49750547.00</t>
+          <t>49860547.00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -1995,12 +1995,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1606.00</t>
+          <t>1609.00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>42305353.00</t>
+          <t>42323853.00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>688.00</t>
+          <t>692.00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>65667105.00</t>
+          <t>66251105.00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2013.00</t>
+          <t>2018.00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>572096590.00</t>
+          <t>573491590.00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2247,12 +2247,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3362.00</t>
+          <t>3369.00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>433538023.00</t>
+          <t>439475023.00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6219.00</t>
+          <t>6228.00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1016154996.00</t>
+          <t>1016969296.00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>556.00</t>
+          <t>557.00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>200280384.00</t>
+          <t>200353314.00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2373,12 +2373,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4974.00</t>
+          <t>4976.00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>335033478.00</t>
+          <t>335298478.00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2415,12 +2415,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>469.00</t>
+          <t>471.00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>113424032.00</t>
+          <t>113610032.00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2457,12 +2457,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>427.00</t>
+          <t>428.00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1153506385.00</t>
+          <t>1188436385.00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2499,12 +2499,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>505.00</t>
+          <t>506.00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>51955461.00</t>
+          <t>52029961.00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1855.00</t>
+          <t>1860.00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>385674357.00</t>
+          <t>385675357.00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>847.00</t>
+          <t>849.00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>522423456.00</t>
+          <t>522578456.00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2625,12 +2625,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>509.00</t>
+          <t>510.00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>27574224.00</t>
+          <t>27704224.00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1919.00</t>
+          <t>1921.00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>86113034.00</t>
+          <t>86135034.00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>544.00</t>
+          <t>547.00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>71279099.00</t>
+          <t>79426999.00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1776.00</t>
+          <t>1777.00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>69618523.00</t>
+          <t>69629623.00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2835,12 +2835,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>912.00</t>
+          <t>913.00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>66026694.00</t>
+          <t>66086694.00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1830.00</t>
+          <t>1834.00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>832503310.00</t>
+          <t>837183310.00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3003,12 +3003,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3193.00</t>
+          <t>3194.00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>323776587.00</t>
+          <t>324755615.00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3045,12 +3045,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4592.00</t>
+          <t>4607.00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>867744870.00</t>
+          <t>871692370.00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>609.00</t>
+          <t>611.00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>73437368.00</t>
+          <t>75470368.00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3129,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2953.00</t>
+          <t>2954.00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>184879276.00</t>
+          <t>184937940.00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3171,12 +3171,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>330.00</t>
+          <t>332.00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>52800474.00</t>
+          <t>53110474.00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>327.00</t>
+          <t>331.00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>271756515.00</t>
+          <t>277693515.00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1353.00</t>
+          <t>1359.00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>171580133.00</t>
+          <t>172151060.00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3339,12 +3339,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>672.00</t>
+          <t>671.00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>77902003.00</t>
+          <t>77908603.00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>410.00</t>
+          <t>411.00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>24547391.00</t>
+          <t>24563391.00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3423,12 +3423,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1380.00</t>
+          <t>1383.00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>84616536.00</t>
+          <t>84743936.00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>501.00</t>
+          <t>502.00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>59868326.00</t>
+          <t>59888326.00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3507,12 +3507,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1423.00</t>
+          <t>1424.00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>33919542.00</t>
+          <t>33849542.00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>267.00</t>
+          <t>270.00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>19702633.00</t>
+          <t>19851633.00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>388.00</t>
+          <t>389.00</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>83959140.00</t>
+          <t>84001140.00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1041.00</t>
+          <t>1042.00</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1655.00</t>
+          <t>1661.00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>336693731.00</t>
+          <t>338074731.00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>190.00</t>
+          <t>192.00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>106766870.00</t>
+          <t>107106870.00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1479.00</t>
+          <t>1483.00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>169106467.00</t>
+          <t>169948067.00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>11479390.00</t>
+          <t>11485890.00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>180.00</t>
+          <t>181.00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>12980089.00</t>
+          <t>12985089.00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>404.00</t>
+          <t>402.00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>39809438.00</t>
+          <t>39674438.00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4053,12 +4053,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>268.00</t>
+          <t>269.00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>77380261.00</t>
+          <t>77395261.00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>34062539.00</t>
+          <t>34087539.00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4179,12 +4179,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>122.00</t>
+          <t>121.00</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9883808.00</t>
+          <t>9603808.00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10137057.00</t>
+          <t>10147057.00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4305,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2190.00</t>
+          <t>2200.00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>186970548.00</t>
+          <t>187443548.00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4062.00</t>
+          <t>4077.00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1772951960.00</t>
+          <t>1781908114.00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4473,12 +4473,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7130.00</t>
+          <t>7152.00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>953250213.00</t>
+          <t>955664563.00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4515,12 +4515,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>10824.00</t>
+          <t>10849.00</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2113974021.00</t>
+          <t>2129559609.00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4557,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1286.00</t>
+          <t>1288.00</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>246246627.00</t>
+          <t>246511177.00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>6635.00</t>
+          <t>6646.00</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>578548751.00</t>
+          <t>579136748.00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4641,12 +4641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>672.00</t>
+          <t>673.00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>105579860.00</t>
+          <t>105710860.00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4683,12 +4683,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>813.00</t>
+          <t>816.00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>883029345.00</t>
+          <t>884138245.00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>902.00</t>
+          <t>907.00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>122882990.00</t>
+          <t>124709190.00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4767,12 +4767,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>3479.00</t>
+          <t>3489.00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>470910552.00</t>
+          <t>473655830.00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1441.00</t>
+          <t>1446.00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>216145508.00</t>
+          <t>216178413.00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>64867445.00</t>
+          <t>64939828.00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4935,12 +4935,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3539.00</t>
+          <t>3554.00</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>257458748.00</t>
+          <t>257898848.00</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>104990029.00</t>
+          <t>105065029.00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5019,12 +5019,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>3051.00</t>
+          <t>3062.00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>100394773.00</t>
+          <t>100855618.00</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>457.00</t>
+          <t>459.00</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>71333012.00</t>
+          <t>71323012.00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5271,12 +5271,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>530.00</t>
+          <t>531.00</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>73738242.00</t>
+          <t>74058242.00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1228.00</t>
+          <t>1232.00</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>262356928.00</t>
+          <t>263483328.00</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5355,12 +5355,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>206.00</t>
+          <t>207.00</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>38801730.00</t>
+          <t>53801730.00</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5397,12 +5397,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>517.00</t>
+          <t>522.00</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>72993849.00</t>
+          <t>73115099.00</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5439,12 +5439,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>98.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>15275185.00</t>
+          <t>15290185.00</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5523,12 +5523,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>92.00</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>9847992.00</t>
+          <t>10147992.00</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5565,12 +5565,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>386.00</t>
+          <t>388.00</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>39439272.00</t>
+          <t>39487872.00</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5607,12 +5607,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>368.00</t>
+          <t>369.00</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>44618251.00</t>
+          <t>44628251.00</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5691,12 +5691,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>279.00</t>
+          <t>280.00</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>22345097.00</t>
+          <t>22370097.00</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5775,12 +5775,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>151.00</t>
+          <t>153.00</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>7120111.00</t>
+          <t>7136411.00</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -5985,12 +5985,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>175.00</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>375000.00</t>
+          <t>28436358.00</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6005,17 +6005,17 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6027,12 +6027,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>175.00</t>
+          <t>259.00</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>28436358.00</t>
+          <t>58105811.00</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6047,17 +6047,17 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6069,12 +6069,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>258.00</t>
+          <t>69.00</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>58065811.00</t>
+          <t>9320137.00</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6089,17 +6089,17 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6111,12 +6111,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>24320137.00</t>
+          <t>10371770.00</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6131,17 +6131,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6153,12 +6153,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>10371770.00</t>
+          <t>1977280.00</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6173,17 +6173,17 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Information et communication</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6195,12 +6195,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1977280.00</t>
+          <t>10208900.00</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6215,17 +6215,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6237,12 +6237,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>10258900.00</t>
+          <t>1456849.00</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6257,17 +6257,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6279,12 +6279,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>104.00</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1506849.00</t>
+          <t>9313093.00</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6299,17 +6299,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6321,12 +6321,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>104.00</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>9313093.00</t>
+          <t>13370412.00</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6341,17 +6341,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6363,12 +6363,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>81.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>13300412.00</t>
+          <t>2414377.00</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6383,17 +6383,17 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Enseignement</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6405,12 +6405,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2361377.00</t>
+          <t>7367698.00</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6425,17 +6425,17 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6447,12 +6447,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>7287698.00</t>
+          <t>1230779.00</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6467,17 +6467,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6489,12 +6489,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>53.00</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1230779.00</t>
+          <t>2575247.00</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6509,17 +6509,17 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6531,12 +6531,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>54.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2628662.00</t>
+          <t>562122.00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6551,17 +6551,17 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6573,37 +6573,37 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1233.00</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>240122.00</t>
+          <t>82547355.00</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Non connu</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6615,12 +6615,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1226.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>81965755.00</t>
+          <t>1104158.00</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6635,17 +6635,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Industries extractives</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6657,12 +6657,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3012.00</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>654158.00</t>
+          <t>1442560876.00</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6677,17 +6677,17 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Industries extractives</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6699,12 +6699,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1437543876.00</t>
+          <t>48029848.00</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6719,17 +6719,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6741,12 +6741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>5794.00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>48029848.00</t>
+          <t>940588771.00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6761,17 +6761,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>5771.00</t>
+          <t>9222.00</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>938179795.00</t>
+          <t>2713570141.00</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6803,17 +6803,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6825,12 +6825,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>9192.00</t>
+          <t>1389.00</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2700532444.00</t>
+          <t>320889294.00</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6845,17 +6845,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6867,12 +6867,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1386.00</t>
+          <t>5906.00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>320329794.00</t>
+          <t>571432103.00</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6887,17 +6887,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6909,12 +6909,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>5889.00</t>
+          <t>752.00</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>570494511.00</t>
+          <t>141808506.00</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6929,17 +6929,17 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Information et communication</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6951,12 +6951,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>748.00</t>
+          <t>644.00</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>141426416.00</t>
+          <t>841486978.00</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6971,17 +6971,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -6993,12 +6993,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>640.00</t>
+          <t>809.00</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>838354020.00</t>
+          <t>71200711.00</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7013,17 +7013,17 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7035,12 +7035,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>808.00</t>
+          <t>3442.00</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>71175711.00</t>
+          <t>468400805.00</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7055,17 +7055,17 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7077,12 +7077,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>3432.00</t>
+          <t>1319.00</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>467723521.00</t>
+          <t>360779879.00</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7097,17 +7097,17 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7119,12 +7119,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1318.00</t>
+          <t>876.00</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>360079879.00</t>
+          <t>62256626.00</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7139,17 +7139,17 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Enseignement</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7161,12 +7161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>873.00</t>
+          <t>3463.00</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>62206426.00</t>
+          <t>218819562.00</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7181,17 +7181,17 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7203,12 +7203,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>3455.00</t>
+          <t>915.00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>218410062.00</t>
+          <t>92615511.00</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7223,17 +7223,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7245,12 +7245,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>915.00</t>
+          <t>2596.00</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>92541111.00</t>
+          <t>80614747.00</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7265,17 +7265,17 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7287,12 +7287,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2591.00</t>
+          <t>47.00</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>80515997.00</t>
+          <t>14838677.00</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7307,17 +7307,17 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7329,37 +7329,37 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>51.00</t>
+          <t>246.00</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>15305677.00</t>
+          <t>17667219.00</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Non connu</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7371,12 +7371,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>246.00</t>
+          <t>6400.00</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>17667219.00</t>
+          <t>7794253918.00</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7391,17 +7391,17 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7413,12 +7413,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>6378.00</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>7794323351.00</t>
+          <t>52812000.00</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7433,17 +7433,17 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7455,12 +7455,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>214.00</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>52812000.00</t>
+          <t>262645005.00</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7475,17 +7475,17 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7497,12 +7497,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>214.00</t>
+          <t>15488.00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>263150005.00</t>
+          <t>2931514265.00</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7517,17 +7517,17 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7539,12 +7539,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>15441.00</t>
+          <t>27719.00</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2959852634.00</t>
+          <t>10331416483.00</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7559,17 +7559,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>27670.00</t>
+          <t>8724.00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>10325290727.00</t>
+          <t>4946872319.00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7601,17 +7601,17 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7623,12 +7623,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>8704.00</t>
+          <t>19895.00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>4945988275.00</t>
+          <t>4064143171.00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7643,17 +7643,17 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7665,12 +7665,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>19878.00</t>
+          <t>8611.00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>4057765945.00</t>
+          <t>3063595422.00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7685,17 +7685,17 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Information et communication</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7707,12 +7707,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>8583.00</t>
+          <t>2859.00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>3046916455.00</t>
+          <t>5992089985.00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7727,17 +7727,17 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7749,12 +7749,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2855.00</t>
+          <t>4440.00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>5903048980.00</t>
+          <t>677973898.00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7769,17 +7769,17 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7791,12 +7791,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>4433.00</t>
+          <t>22912.00</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>671412453.00</t>
+          <t>7094308785.00</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7811,17 +7811,17 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7833,12 +7833,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>22868.00</t>
+          <t>6426.00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>7093452134.00</t>
+          <t>2202035958.00</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7853,17 +7853,17 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7875,12 +7875,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>6420.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2196648555.00</t>
+          <t>1614000.00</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7895,17 +7895,17 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Administration publique</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7917,12 +7917,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2781.00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1614000.00</t>
+          <t>509609149.00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7937,17 +7937,17 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Administration publique</t>
+          <t>Enseignement</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -7959,12 +7959,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2775.00</t>
+          <t>9709.00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>508374900.00</t>
+          <t>953298744.00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7979,17 +7979,17 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8001,12 +8001,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>9695.00</t>
+          <t>3131.00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>952396682.00</t>
+          <t>979680699.00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -8021,17 +8021,17 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8043,12 +8043,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>3126.00</t>
+          <t>7057.00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>979308699.00</t>
+          <t>406879655.00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8063,17 +8063,17 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8085,12 +8085,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7049.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>405170910.00</t>
+          <t>45321632.00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -8105,17 +8105,17 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8127,37 +8127,37 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>180.00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>45321632.00</t>
+          <t>24896612.00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>04</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Non connu</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8169,12 +8169,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>180.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>24856612.00</t>
+          <t>2930000.00</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -8189,17 +8189,17 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Industries extractives</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8211,12 +8211,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>669.00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2930000.00</t>
+          <t>99918325.00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -8231,17 +8231,17 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Industries extractives</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8253,12 +8253,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>667.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>98266325.00</t>
+          <t>6726000.00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -8273,17 +8273,17 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8295,12 +8295,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>1099.00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>6726000.00</t>
+          <t>113885519.00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -8315,17 +8315,17 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8337,12 +8337,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1096.00</t>
+          <t>1950.00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>113168319.00</t>
+          <t>391039439.00</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -8357,17 +8357,17 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8379,12 +8379,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>1943.00</t>
+          <t>307.00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>390509907.00</t>
+          <t>135059106.00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -8399,17 +8399,17 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8421,12 +8421,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>307.00</t>
+          <t>725.00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>134999106.00</t>
+          <t>61842655.00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -8441,17 +8441,17 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8463,12 +8463,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>724.00</t>
+          <t>123.00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>61797655.00</t>
+          <t>16655728.00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -8483,17 +8483,17 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Information et communication</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8505,12 +8505,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>123.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>16655728.00</t>
+          <t>40678465.00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -8525,17 +8525,17 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8547,12 +8547,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>101.00</t>
+          <t>106.00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>40695465.00</t>
+          <t>9999323.00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -8567,17 +8567,17 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8589,12 +8589,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>106.00</t>
+          <t>544.00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>9999323.00</t>
+          <t>123686563.00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -8609,17 +8609,17 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8631,12 +8631,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>541.00</t>
+          <t>301.00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>123412861.00</t>
+          <t>41159053.00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -8651,17 +8651,17 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8673,12 +8673,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>299.00</t>
+          <t>182.00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>41089053.00</t>
+          <t>12401426.00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -8693,17 +8693,17 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Enseignement</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8715,12 +8715,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>182.00</t>
+          <t>658.00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>12401426.00</t>
+          <t>41031436.00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -8735,17 +8735,17 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8757,12 +8757,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>657.00</t>
+          <t>166.00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>40959436.00</t>
+          <t>13269066.00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -8777,17 +8777,17 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8799,12 +8799,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>165.00</t>
+          <t>414.00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>13260166.00</t>
+          <t>13103790.00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8841,12 +8841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>414.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>13107168.00</t>
+          <t>1148343.00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -8861,17 +8861,17 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8883,37 +8883,37 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>126.00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1148343.00</t>
+          <t>14323198.00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>02</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Non connu</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8925,12 +8925,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>124.00</t>
+          <t>346.00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>14301198.00</t>
+          <t>52202867.00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -8945,17 +8945,17 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -8967,12 +8967,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>344.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>52019867.00</t>
+          <t>5277000.00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -8987,17 +8987,17 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9009,12 +9009,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>392.00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>5277000.00</t>
+          <t>47011920.00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -9029,17 +9029,17 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9051,12 +9051,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>387.00</t>
+          <t>959.00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>46747051.00</t>
+          <t>311249435.00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -9071,17 +9071,17 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9093,12 +9093,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>955.00</t>
+          <t>210.00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>312085730.00</t>
+          <t>38827503.00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -9113,17 +9113,17 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9135,12 +9135,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>209.00</t>
+          <t>373.00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>38662630.00</t>
+          <t>39000306.00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -9155,17 +9155,17 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9177,12 +9177,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>369.00</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>38670306.00</t>
+          <t>11349138.00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -9197,17 +9197,17 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Information et communication</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9219,12 +9219,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>78.00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>11349138.00</t>
+          <t>164356727.00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -9239,17 +9239,17 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9261,12 +9261,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>77.00</t>
+          <t>46.00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>164306727.00</t>
+          <t>5360866.00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -9281,17 +9281,17 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9303,12 +9303,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>307.00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>5355316.00</t>
+          <t>38670439.00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -9323,17 +9323,17 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9345,12 +9345,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>304.00</t>
+          <t>251.00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>37818439.00</t>
+          <t>33908441.00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -9365,17 +9365,17 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9387,12 +9387,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>248.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>33842640.00</t>
+          <t>2917914.00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -9407,17 +9407,17 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Enseignement</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9429,12 +9429,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>69.00</t>
+          <t>302.00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2892914.00</t>
+          <t>21821924.00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -9449,17 +9449,17 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9471,12 +9471,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>302.00</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>21778109.00</t>
+          <t>7134512.00</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -9491,17 +9491,17 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9513,12 +9513,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>193.00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>7134512.00</t>
+          <t>7730990.00</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -9533,17 +9533,17 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9555,12 +9555,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>192.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>7717005.00</t>
+          <t>2798959.00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -9575,17 +9575,17 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9597,37 +9597,37 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2798959.00</t>
+          <t>671000.00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Non connu</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9639,12 +9639,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>671000.00</t>
+          <t>10102308.00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -9659,17 +9659,17 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9681,12 +9681,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>10102308.00</t>
+          <t>824714.00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -9701,17 +9701,17 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9723,12 +9723,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>824714.00</t>
+          <t>12010903.00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -9743,17 +9743,17 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9765,12 +9765,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>163.00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>12010903.00</t>
+          <t>34313715.00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -9785,17 +9785,17 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9807,12 +9807,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>163.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>34363715.00</t>
+          <t>9297000.00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -9827,17 +9827,17 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9849,12 +9849,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>9297000.00</t>
+          <t>2564627.00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -9869,17 +9869,17 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9891,12 +9891,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2564627.00</t>
+          <t>643654.00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -9911,17 +9911,17 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Information et communication</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9933,12 +9933,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>643654.00</t>
+          <t>256000.00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -9953,17 +9953,17 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -9975,12 +9975,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>256000.00</t>
+          <t>2907424.00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -9995,17 +9995,17 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10017,12 +10017,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2907424.00</t>
+          <t>4658514.00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -10037,17 +10037,17 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10059,12 +10059,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>4658514.00</t>
+          <t>1207500.00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -10079,17 +10079,17 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Enseignement</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10101,12 +10101,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1207500.00</t>
+          <t>1818994.00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -10121,17 +10121,17 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10143,12 +10143,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1818994.00</t>
+          <t>347400.00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -10163,17 +10163,17 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10185,12 +10185,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>347400.00</t>
+          <t>874274.00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -10205,17 +10205,17 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10227,12 +10227,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>874274.00</t>
+          <t>1992189.00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -10247,17 +10247,17 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10269,37 +10269,37 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>1162.00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1992189.00</t>
+          <t>69284425.00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Non connu</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10311,12 +10311,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>1160.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>68821325.00</t>
+          <t>1854000.00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -10331,17 +10331,17 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Industries extractives</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10353,12 +10353,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1903.00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1854000.00</t>
+          <t>685475754.00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -10373,17 +10373,17 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Industries extractives</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10395,12 +10395,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>1895.00</t>
+          <t>59.00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>683360754.00</t>
+          <t>36315100.00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -10415,17 +10415,17 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10437,12 +10437,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>3225.00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>36375100.00</t>
+          <t>392412537.00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -10457,17 +10457,17 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10479,12 +10479,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>3218.00</t>
+          <t>5680.00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>391472537.00</t>
+          <t>902222900.00</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -10499,17 +10499,17 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10521,12 +10521,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>5667.00</t>
+          <t>649.00</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>899408300.00</t>
+          <t>178670548.00</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -10541,17 +10541,17 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10563,12 +10563,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>647.00</t>
+          <t>3981.00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>175520548.00</t>
+          <t>273739825.00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -10583,17 +10583,17 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10605,12 +10605,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>3977.00</t>
+          <t>353.00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>273728825.00</t>
+          <t>47145533.00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -10625,17 +10625,17 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Information et communication</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10647,12 +10647,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>352.00</t>
+          <t>398.00</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>47340533.00</t>
+          <t>350661477.00</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -10667,17 +10667,17 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10689,12 +10689,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>397.00</t>
+          <t>486.00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>350562477.00</t>
+          <t>37022268.00</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -10709,17 +10709,17 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>485.00</t>
+          <t>1656.00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>36893583.00</t>
+          <t>211350313.00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -10751,17 +10751,17 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10773,12 +10773,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>1653.00</t>
+          <t>719.00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>212270713.00</t>
+          <t>85123420.00</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -10793,17 +10793,17 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10815,12 +10815,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>718.00</t>
+          <t>508.00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>84816920.00</t>
+          <t>48833131.00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -10835,17 +10835,17 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Enseignement</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10857,12 +10857,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>507.00</t>
+          <t>1445.00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>48793131.00</t>
+          <t>96791537.00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -10877,17 +10877,17 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10899,12 +10899,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>1444.00</t>
+          <t>617.00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>96686537.00</t>
+          <t>57241186.00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -10919,17 +10919,17 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10941,12 +10941,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>615.00</t>
+          <t>1691.00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>57186186.00</t>
+          <t>58502539.00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -10961,17 +10961,17 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -10983,12 +10983,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>1689.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>58486539.00</t>
+          <t>1419714.00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -11003,17 +11003,17 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11025,37 +11025,37 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>5506.00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>1355214.00</t>
+          <t>464704997.00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Non connu</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11067,12 +11067,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>5473.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>459159118.00</t>
+          <t>8616000.00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -11087,17 +11087,17 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Industries extractives</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11109,12 +11109,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>5001.00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>8616000.00</t>
+          <t>1539904483.00</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -11129,17 +11129,17 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Industries extractives</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11151,12 +11151,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>4987.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>1535658348.00</t>
+          <t>47488190.00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -11171,17 +11171,17 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11193,12 +11193,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>105.00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>47488190.00</t>
+          <t>36773034.00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -11213,17 +11213,17 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11235,12 +11235,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>105.00</t>
+          <t>9365.00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>36773034.00</t>
+          <t>1001769028.00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -11255,17 +11255,17 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11277,12 +11277,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>9344.00</t>
+          <t>15228.00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>1000081351.00</t>
+          <t>2812838559.00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -11297,17 +11297,17 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11319,12 +11319,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>15208.00</t>
+          <t>1525.00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2809881679.00</t>
+          <t>258623974.00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -11339,17 +11339,17 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11361,12 +11361,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>1519.00</t>
+          <t>9546.00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>258533918.00</t>
+          <t>794211641.00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -11381,17 +11381,17 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11403,12 +11403,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>9540.00</t>
+          <t>975.00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>793704041.00</t>
+          <t>156540083.00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -11423,17 +11423,17 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Information et communication</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11445,12 +11445,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>976.00</t>
+          <t>1132.00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>156035283.00</t>
+          <t>944919029.00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -11465,17 +11465,17 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11487,12 +11487,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>1132.00</t>
+          <t>1696.00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>939837029.00</t>
+          <t>120461579.00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -11507,17 +11507,17 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11529,12 +11529,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>1692.00</t>
+          <t>4873.00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>120530579.00</t>
+          <t>890579279.00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -11549,17 +11549,17 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11571,12 +11571,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>4859.00</t>
+          <t>2185.00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>888631679.00</t>
+          <t>239543493.00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -11591,17 +11591,17 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11613,12 +11613,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2178.00</t>
+          <t>1224.00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>239594493.00</t>
+          <t>83276650.00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -11633,17 +11633,17 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Enseignement</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11655,12 +11655,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>1225.00</t>
+          <t>4853.00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>83188460.00</t>
+          <t>271408801.00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -11675,17 +11675,17 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11697,12 +11697,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>4842.00</t>
+          <t>1435.00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>270537701.00</t>
+          <t>116160193.00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -11717,17 +11717,17 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11739,12 +11739,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>1431.00</t>
+          <t>4111.00</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>115959193.00</t>
+          <t>114251645.00</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -11759,17 +11759,17 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11781,12 +11781,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>4101.00</t>
+          <t>74.00</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>114083385.00</t>
+          <t>30106135.00</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -11801,17 +11801,17 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11823,37 +11823,37 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>74.00</t>
+          <t>3424.00</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>30106135.00</t>
+          <t>208859345.00</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Non connu</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11865,12 +11865,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>3393.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>207360804.00</t>
+          <t>3923082.00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -11885,17 +11885,17 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Industries extractives</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11907,12 +11907,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>4556.00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>3923082.00</t>
+          <t>1586413881.00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -11927,17 +11927,17 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Industries extractives</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11949,12 +11949,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>4532.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>1575739881.00</t>
+          <t>8389000.00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -11969,17 +11969,17 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -11991,12 +11991,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>133.00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>8389000.00</t>
+          <t>36361926.00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -12011,17 +12011,17 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12033,12 +12033,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>123.00</t>
+          <t>9562.00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>34847051.00</t>
+          <t>1087477767.00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -12053,17 +12053,17 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12075,12 +12075,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>9525.00</t>
+          <t>15800.00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>1074169377.00</t>
+          <t>2537297396.00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -12095,17 +12095,17 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12117,12 +12117,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>15753.00</t>
+          <t>1565.00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2528712802.00</t>
+          <t>226779378.00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -12137,17 +12137,17 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12159,12 +12159,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>1558.00</t>
+          <t>10232.00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>226362378.00</t>
+          <t>790965710.00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -12179,17 +12179,17 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12201,12 +12201,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>10209.00</t>
+          <t>1244.00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>788538362.00</t>
+          <t>281577384.00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -12221,17 +12221,17 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Information et communication</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12243,12 +12243,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>1236.00</t>
+          <t>1077.00</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>278057934.00</t>
+          <t>1009695833.00</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -12263,17 +12263,17 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12285,12 +12285,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>1069.00</t>
+          <t>1690.00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>1008775309.00</t>
+          <t>149554509.00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -12305,17 +12305,17 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12327,12 +12327,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>1685.00</t>
+          <t>5632.00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>150685009.00</t>
+          <t>926414992.00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -12347,17 +12347,17 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12369,12 +12369,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>5607.00</t>
+          <t>2222.00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>920324566.00</t>
+          <t>343524372.00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -12389,17 +12389,17 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12411,12 +12411,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2214.00</t>
+          <t>1297.00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>342682872.00</t>
+          <t>78628273.00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -12431,17 +12431,17 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Enseignement</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12453,12 +12453,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>1292.00</t>
+          <t>5137.00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>78686783.00</t>
+          <t>297117877.00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -12473,17 +12473,17 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12495,12 +12495,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>5121.00</t>
+          <t>1451.00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>296580572.00</t>
+          <t>148523718.00</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -12515,17 +12515,17 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12537,12 +12537,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>1452.00</t>
+          <t>3824.00</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>148579968.00</t>
+          <t>127053707.00</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -12557,17 +12557,17 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12579,12 +12579,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>3818.00</t>
+          <t>105.00</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>126967767.00</t>
+          <t>20558152.00</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -12599,17 +12599,17 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12621,37 +12621,37 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>113.00</t>
+          <t>1268.00</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>21923027.00</t>
+          <t>96576097.00</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Non connu</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12663,12 +12663,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>1264.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>95501097.00</t>
+          <t>11501000.00</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -12683,17 +12683,17 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Industries extractives</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12705,12 +12705,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>2477.00</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>11501000.00</t>
+          <t>1245456681.00</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -12725,17 +12725,17 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Industries extractives</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12747,12 +12747,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2474.00</t>
+          <t>64.00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>1246131289.00</t>
+          <t>11942300.00</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -12767,17 +12767,17 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12789,12 +12789,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>63.00</t>
+          <t>3820.00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>11903300.00</t>
+          <t>453568248.00</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -12809,17 +12809,17 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12831,12 +12831,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>3812.00</t>
+          <t>6355.00</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>453841198.00</t>
+          <t>1104201886.00</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -12851,17 +12851,17 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12873,12 +12873,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>6336.00</t>
+          <t>539.00</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>1099437586.00</t>
+          <t>81770645.00</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -12893,17 +12893,17 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12915,12 +12915,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>538.00</t>
+          <t>4273.00</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>81755645.00</t>
+          <t>308998833.00</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -12935,17 +12935,17 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12957,12 +12957,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>4268.00</t>
+          <t>589.00</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>308834833.00</t>
+          <t>119902912.00</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -12977,17 +12977,17 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Information et communication</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -12999,12 +12999,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>582.00</t>
+          <t>503.00</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>119637535.00</t>
+          <t>655446970.00</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -13019,17 +13019,17 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13041,12 +13041,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>501.00</t>
+          <t>578.00</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>655350970.00</t>
+          <t>46086198.00</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -13061,17 +13061,17 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13083,12 +13083,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>578.00</t>
+          <t>2385.00</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>46086198.00</t>
+          <t>726787548.00</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -13103,17 +13103,17 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13125,12 +13125,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2379.00</t>
+          <t>986.00</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>726258048.00</t>
+          <t>159584424.00</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -13145,17 +13145,17 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13167,12 +13167,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>985.00</t>
+          <t>599.00</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>158975220.00</t>
+          <t>48401000.00</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -13187,17 +13187,17 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Enseignement</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13209,12 +13209,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>597.00</t>
+          <t>2017.00</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>48344715.00</t>
+          <t>137508032.00</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -13229,17 +13229,17 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13251,12 +13251,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2017.00</t>
+          <t>738.00</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>137437032.00</t>
+          <t>113586663.00</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -13271,17 +13271,17 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13293,12 +13293,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>734.00</t>
+          <t>1910.00</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>113301663.00</t>
+          <t>57965140.00</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -13313,17 +13313,17 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13335,12 +13335,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>1907.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>57872140.00</t>
+          <t>2305738.00</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -13355,17 +13355,17 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13377,37 +13377,37 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>1779.00</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2305738.00</t>
+          <t>147649534.00</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>93</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Non connu</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13419,12 +13419,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>1773.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>147303758.00</t>
+          <t>2959000.00</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -13439,17 +13439,17 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Industries extractives</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13461,12 +13461,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>4350.00</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2959000.00</t>
+          <t>1000122848.00</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -13481,17 +13481,17 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Industries extractives</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13503,12 +13503,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>4343.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>995982098.00</t>
+          <t>5913000.00</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -13523,17 +13523,17 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13545,12 +13545,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>129.00</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>5913000.00</t>
+          <t>32625700.00</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -13565,17 +13565,17 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13587,12 +13587,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>129.00</t>
+          <t>9761.00</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>32625700.00</t>
+          <t>1213619739.00</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -13607,17 +13607,17 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13629,12 +13629,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>9730.00</t>
+          <t>16965.00</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>1209825867.00</t>
+          <t>2746508719.00</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -13649,17 +13649,17 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13671,12 +13671,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>16922.00</t>
+          <t>2568.00</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2736668825.00</t>
+          <t>1631824451.00</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -13691,17 +13691,17 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13713,12 +13713,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2558.00</t>
+          <t>11685.00</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>1631263151.00</t>
+          <t>1260003686.00</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -13733,17 +13733,17 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13755,12 +13755,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>11677.00</t>
+          <t>1332.00</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>1258572444.00</t>
+          <t>228636224.00</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -13775,17 +13775,17 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Information et communication</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13797,12 +13797,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>1332.00</t>
+          <t>1224.00</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>228995248.00</t>
+          <t>610898125.00</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -13817,17 +13817,17 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13839,12 +13839,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>1219.00</t>
+          <t>2503.00</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>607820125.00</t>
+          <t>188829133.00</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -13859,17 +13859,17 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13881,12 +13881,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2498.00</t>
+          <t>6782.00</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>188404600.00</t>
+          <t>1140226992.00</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -13901,17 +13901,17 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13923,12 +13923,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>6758.00</t>
+          <t>3185.00</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>1137562073.00</t>
+          <t>669822777.00</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -13943,17 +13943,17 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -13965,12 +13965,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>3185.00</t>
+          <t>1396.00</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>670719977.00</t>
+          <t>87266843.00</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -13985,17 +13985,17 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Enseignement</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -14007,12 +14007,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>1389.00</t>
+          <t>6078.00</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>87141943.00</t>
+          <t>397790437.00</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -14027,17 +14027,17 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -14049,12 +14049,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>6064.00</t>
+          <t>1562.00</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>397237508.00</t>
+          <t>239877777.00</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -14069,17 +14069,17 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -14091,12 +14091,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>1557.00</t>
+          <t>4273.00</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>239376319.00</t>
+          <t>142949832.00</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -14111,17 +14111,17 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -14133,12 +14133,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>4267.00</t>
+          <t>49.00</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>142840632.00</t>
+          <t>3884689.00</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -14153,17 +14153,17 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -14175,37 +14175,29 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>3887689.00</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
-        </is>
-      </c>
+          <t>635000.00</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Non connu</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -14229,17 +14221,17 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -14263,17 +14255,17 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -14297,17 +14289,17 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -14331,17 +14323,17 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -14365,17 +14357,17 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
@@ -14387,29 +14379,29 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>47.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>10138700.00</t>
+          <t>765000.00</t>
         </is>
       </c>
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Activités des ménages en tant qu'employeurs ; activités indifférenciées des ménages en tant que producteurs de biens et services pour usage propre</t>
+          <t>Non connu</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-10-29</t>
         </is>
       </c>
     </row>
